--- a/public/data/ballparks.xlsx
+++ b/public/data/ballparks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikmd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\talk-future-of-dev\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E49D3A6-5B3B-42AE-BAB6-E00ACB549AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110EB5D-244A-4723-BD91-9B3FB0171F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="33946" windowHeight="22096" xr2:uid="{64A02C90-724C-40E9-82C3-F967BBB77E6F}"/>
   </bookViews>
@@ -1870,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E3A356-E4B9-401F-9581-53C9D178E23F}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4105,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="T36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.45">
